--- a/docs/Example.xlsx
+++ b/docs/Example.xlsx
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>110.2060807100864</v>
+        <v>110.2034091556903</v>
       </c>
       <c r="C6">
         <v>288.6043</v>
       </c>
       <c r="D6">
-        <v>356.7906643308996</v>
+        <v>356.7982547173641</v>
       </c>
       <c r="E6">
-        <v>466.996745040986</v>
+        <v>467.0016638730543</v>
       </c>
       <c r="F6">
-        <v>178.3953321654498</v>
+        <v>178.3991273586821</v>
       </c>
       <c r="G6">
-        <v>178.3953321654498</v>
+        <v>178.3991273586821</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -737,22 +737,22 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.001114525992080929</v>
+        <v>0.001243309102939067</v>
       </c>
       <c r="C9">
         <v>0.5318344182675032</v>
       </c>
       <c r="D9">
-        <v>0.85970253776462</v>
+        <v>0.859600115720723</v>
       </c>
       <c r="E9">
-        <v>0.6570852374795557</v>
+        <v>0.6570444212147075</v>
       </c>
       <c r="F9">
-        <v>0.85970253776462</v>
+        <v>0.859600115720723</v>
       </c>
       <c r="G9">
-        <v>0.85970253776462</v>
+        <v>0.859600115720723</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -760,22 +760,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.9988854740079192</v>
+        <v>0.9987566908970609</v>
       </c>
       <c r="C10">
         <v>0.4681655817324967</v>
       </c>
       <c r="D10">
-        <v>0.1402974622353801</v>
+        <v>0.1403998842792769</v>
       </c>
       <c r="E10">
-        <v>0.3429147625204442</v>
+        <v>0.3429555787852926</v>
       </c>
       <c r="F10">
-        <v>0.1402974622353801</v>
+        <v>0.1403998842792769</v>
       </c>
       <c r="G10">
-        <v>0.1402974622353801</v>
+        <v>0.1403998842792769</v>
       </c>
     </row>
   </sheetData>
@@ -816,13 +816,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>20367489.50721492</v>
+        <v>20444816.64399876</v>
       </c>
       <c r="D3">
-        <v>523.5858485145222</v>
+        <v>525.573692647783</v>
       </c>
       <c r="E3">
-        <v>104.7171697029045</v>
+        <v>105.1147385295566</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -875,7 +875,7 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>20367489.50721492</v>
+        <v>20444816.64399876</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -887,7 +887,7 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>523.5858485145222</v>
+        <v>525.573692647783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>104.7171697029045</v>
+        <v>105.1147385295566</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -993,7 +993,7 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>32176.77377852005</v>
+        <v>32553.98452044417</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>93797.11144553342</v>
+        <v>94174.32218745754</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>104.7171697029045</v>
+        <v>105.1147385295566</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Example.xlsx
+++ b/docs/Example.xlsx
@@ -255,10 +255,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -276,7 +276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8115300" cy="2352675"/>
+          <a:ext cx="6191250" cy="3314700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/docs/Example.xlsx
+++ b/docs/Example.xlsx
@@ -255,10 +255,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -276,7 +276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6191250" cy="3314700"/>
+          <a:ext cx="8115300" cy="2352675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
